--- a/docss/trend/romania/E_neuron.xlsx
+++ b/docss/trend/romania/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\romania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\romania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,216 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>9.8943983670324087E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="C2" s="6">
-        <v>0.14940520375967026</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="D2" s="6">
-        <v>5.4620554205030203E-2</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>5.5E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>0.15380905056372285</v>
+        <v>0.154</v>
       </c>
       <c r="C3" s="6">
-        <v>0.17565794847905636</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>0.13003373518586159</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>0.15990066784434021</v>
+        <v>0.16</v>
       </c>
       <c r="C4" s="6">
-        <v>0.22482548141852021</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="D4" s="6">
-        <v>0.10497227171435952</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>0.105</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>0.14032095344737172</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>0.18206214066594839</v>
+        <v>0.182</v>
       </c>
       <c r="D5" s="6">
-        <v>0.10160358203575015</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>0.10199999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>0.15891356905922294</v>
+        <v>0.159</v>
       </c>
       <c r="C6" s="6">
-        <v>0.15489283902570605</v>
+        <v>0.155</v>
       </c>
       <c r="D6" s="6">
-        <v>0.16667285654693842</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>0.16700000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>0.10216998867690563</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C7" s="6">
-        <v>0.13774679787456989</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D7" s="6">
-        <v>7.2158558759838343E-2</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>0.1761563397012651</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="C8" s="6">
-        <v>0.2209605984389782</v>
+        <v>0.221</v>
       </c>
       <c r="D8" s="6">
-        <v>0.13848491432145238</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>0.20010825153440237</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.27223907876759768</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="D9" s="6">
-        <v>0.13759319484233856</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>0.13800000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>0.21199407847598195</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.31109619932249188</v>
+        <v>0.311</v>
       </c>
       <c r="D10" s="6">
-        <v>0.13382269092835486</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>0.13400000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>0.19743316946551204</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>0.25802253186702728</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="D11" s="6">
-        <v>0.14627033285796642</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>0.14599999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>0.15751489019021392</v>
+        <v>0.158</v>
       </c>
       <c r="C12" s="6">
-        <v>0.23449062369763851</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="D12" s="6">
-        <v>9.761526994407177E-2</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>0.22756137466058135</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="C13" s="6">
-        <v>0.20704006496816874</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="D13" s="6">
-        <v>0.24220267916098237</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>0.24199999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>0.23399415472522378</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="C14" s="6">
-        <v>0.28808892332017422</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="D14" s="6">
-        <v>0.18382766377180815</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>0.184</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
